--- a/resources/import/sold_policies_hay2a_report.xlsx
+++ b/resources/import/sold_policies_hay2a_report.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="الوثائق الملغاه" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'الاصدار'!$B$3:$P$677</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">'الاصدار'!$B$3:$P$672</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'الوثائق الملغاه'!$A$3:$J$82</definedName>
   </definedNames>
   <calcPr/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
   <si>
     <t>م</t>
   </si>
@@ -63,21 +63,6 @@
   </si>
   <si>
     <t xml:space="preserve">ملاحظات </t>
-  </si>
-  <si>
-    <t>اجمالي الايراد</t>
-  </si>
-  <si>
-    <t>ايراد وثائق سابقة</t>
-  </si>
-  <si>
-    <t>الالغاء</t>
-  </si>
-  <si>
-    <t>الاجمالي</t>
-  </si>
-  <si>
-    <t>المبلغ</t>
   </si>
   <si>
     <t>سجل الألغاءات  للربع  الرابع   عن عام 2024</t>
@@ -144,7 +129,7 @@
     <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yy"/>
     <numFmt numFmtId="167" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -216,12 +201,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b/>
       <u/>
       <sz val="11.0"/>
       <color theme="1"/>
@@ -253,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="9">
     <border/>
     <border>
       <left/>
@@ -307,28 +286,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -341,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="54">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -437,27 +394,14 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="12" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="7" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
-    </xf>
-    <xf borderId="8" fillId="3" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf borderId="9" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="7" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment shrinkToFit="0" wrapText="1"/>
-    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="7" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -487,10 +431,10 @@
     <xf borderId="7" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="2" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="10" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="8" fillId="3" fontId="6" numFmtId="167" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="15" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="14" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -13343,145 +13287,100 @@
     <row r="444" ht="14.25" customHeight="1">
       <c r="A444" s="1"/>
       <c r="D444" s="38"/>
-      <c r="G444" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="H444" s="40">
-        <f>SUM(G4:G443)</f>
-        <v>0</v>
-      </c>
-      <c r="I444" s="41"/>
-      <c r="J444" s="7"/>
-      <c r="K444" s="42"/>
-      <c r="M444" s="43"/>
+      <c r="H444" s="5"/>
+      <c r="K444" s="39"/>
+      <c r="M444" s="40"/>
       <c r="P444" s="5"/>
     </row>
     <row r="445" ht="14.25" customHeight="1">
       <c r="A445" s="1"/>
       <c r="D445" s="38"/>
-      <c r="G445" s="44" t="s">
-        <v>17</v>
-      </c>
-      <c r="H445" s="40"/>
-      <c r="I445" s="41"/>
-      <c r="J445" s="7"/>
-      <c r="K445" s="45"/>
-      <c r="M445" s="42"/>
+      <c r="H445" s="5"/>
+      <c r="K445" s="39"/>
       <c r="P445" s="5"/>
-      <c r="R445" s="43"/>
     </row>
     <row r="446" ht="14.25" customHeight="1">
       <c r="A446" s="1"/>
       <c r="D446" s="38"/>
-      <c r="G446" s="39" t="s">
-        <v>18</v>
-      </c>
-      <c r="H446" s="40">
-        <f>'الوثائق الملغاه'!J82</f>
-        <v>7779.6358</v>
-      </c>
-      <c r="I446" s="41"/>
-      <c r="J446" s="7"/>
-      <c r="K446" s="45"/>
-      <c r="M446" s="42"/>
-      <c r="N446" s="43"/>
+      <c r="H446" s="5"/>
+      <c r="K446" s="41"/>
       <c r="P446" s="5"/>
     </row>
     <row r="447" ht="14.25" customHeight="1">
       <c r="A447" s="1"/>
       <c r="D447" s="38"/>
-      <c r="E447" s="43"/>
-      <c r="G447" s="39" t="s">
-        <v>19</v>
-      </c>
-      <c r="H447" s="40">
-        <f>H444+H445-H446</f>
-        <v>-7779.6358</v>
-      </c>
-      <c r="I447" s="41"/>
-      <c r="J447" s="7"/>
-      <c r="K447" s="45"/>
-      <c r="L447" s="43"/>
-      <c r="M447" s="42"/>
-      <c r="N447" s="43"/>
+      <c r="H447" s="5"/>
+      <c r="K447" s="41"/>
       <c r="P447" s="5"/>
     </row>
     <row r="448" ht="14.25" customHeight="1">
       <c r="A448" s="1"/>
       <c r="D448" s="38"/>
-      <c r="G448" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="H448" s="40">
-        <f>H447*0.002</f>
-        <v>-15.5592716</v>
-      </c>
-      <c r="I448" s="41"/>
-      <c r="J448" s="7"/>
+      <c r="H448" s="5"/>
+      <c r="K448" s="41"/>
       <c r="P448" s="5"/>
     </row>
     <row r="449" ht="14.25" customHeight="1">
       <c r="A449" s="1"/>
       <c r="D449" s="38"/>
       <c r="H449" s="5"/>
-      <c r="K449" s="42"/>
-      <c r="M449" s="43"/>
+      <c r="K449" s="41"/>
       <c r="P449" s="5"/>
     </row>
     <row r="450" ht="14.25" customHeight="1">
       <c r="A450" s="1"/>
       <c r="D450" s="38"/>
       <c r="H450" s="5"/>
-      <c r="K450" s="42"/>
+      <c r="K450" s="41"/>
       <c r="P450" s="5"/>
     </row>
     <row r="451" ht="14.25" customHeight="1">
       <c r="A451" s="1"/>
       <c r="D451" s="38"/>
       <c r="H451" s="5"/>
-      <c r="K451" s="46"/>
+      <c r="K451" s="41"/>
       <c r="P451" s="5"/>
     </row>
     <row r="452" ht="14.25" customHeight="1">
       <c r="A452" s="1"/>
       <c r="D452" s="38"/>
       <c r="H452" s="5"/>
-      <c r="K452" s="46"/>
+      <c r="K452" s="41"/>
       <c r="P452" s="5"/>
     </row>
     <row r="453" ht="14.25" customHeight="1">
       <c r="A453" s="1"/>
       <c r="D453" s="38"/>
       <c r="H453" s="5"/>
-      <c r="K453" s="46"/>
+      <c r="K453" s="5"/>
       <c r="P453" s="5"/>
     </row>
     <row r="454" ht="14.25" customHeight="1">
       <c r="A454" s="1"/>
       <c r="D454" s="38"/>
       <c r="H454" s="5"/>
-      <c r="K454" s="46"/>
+      <c r="K454" s="5"/>
       <c r="P454" s="5"/>
     </row>
     <row r="455" ht="14.25" customHeight="1">
       <c r="A455" s="1"/>
       <c r="D455" s="38"/>
       <c r="H455" s="5"/>
-      <c r="K455" s="46"/>
+      <c r="K455" s="5"/>
       <c r="P455" s="5"/>
     </row>
     <row r="456" ht="14.25" customHeight="1">
       <c r="A456" s="1"/>
       <c r="D456" s="38"/>
       <c r="H456" s="5"/>
-      <c r="K456" s="46"/>
+      <c r="K456" s="5"/>
       <c r="P456" s="5"/>
     </row>
     <row r="457" ht="14.25" customHeight="1">
       <c r="A457" s="1"/>
       <c r="D457" s="38"/>
       <c r="H457" s="5"/>
-      <c r="K457" s="46"/>
+      <c r="K457" s="5"/>
       <c r="P457" s="5"/>
     </row>
     <row r="458" ht="14.25" customHeight="1">
@@ -17112,7 +17011,9 @@
     </row>
     <row r="976" ht="14.25" customHeight="1">
       <c r="A976" s="1"/>
-      <c r="D976" s="38"/>
+      <c r="D976" s="38">
+        <v>0.0</v>
+      </c>
       <c r="H976" s="5"/>
       <c r="K976" s="5"/>
       <c r="P976" s="5"/>
@@ -17147,9 +17048,7 @@
     </row>
     <row r="981" ht="14.25" customHeight="1">
       <c r="A981" s="1"/>
-      <c r="D981" s="38">
-        <v>0.0</v>
-      </c>
+      <c r="D981" s="38"/>
       <c r="H981" s="5"/>
       <c r="K981" s="5"/>
       <c r="P981" s="5"/>
@@ -17252,51 +17151,11 @@
       <c r="K995" s="5"/>
       <c r="P995" s="5"/>
     </row>
-    <row r="996" ht="14.25" customHeight="1">
-      <c r="A996" s="1"/>
-      <c r="D996" s="38"/>
-      <c r="H996" s="5"/>
-      <c r="K996" s="5"/>
-      <c r="P996" s="5"/>
-    </row>
-    <row r="997" ht="14.25" customHeight="1">
-      <c r="A997" s="1"/>
-      <c r="D997" s="38"/>
-      <c r="H997" s="5"/>
-      <c r="K997" s="5"/>
-      <c r="P997" s="5"/>
-    </row>
-    <row r="998" ht="14.25" customHeight="1">
-      <c r="A998" s="1"/>
-      <c r="D998" s="38"/>
-      <c r="H998" s="5"/>
-      <c r="K998" s="5"/>
-      <c r="P998" s="5"/>
-    </row>
-    <row r="999" ht="14.25" customHeight="1">
-      <c r="A999" s="1"/>
-      <c r="D999" s="38"/>
-      <c r="H999" s="5"/>
-      <c r="K999" s="5"/>
-      <c r="P999" s="5"/>
-    </row>
-    <row r="1000" ht="14.25" customHeight="1">
-      <c r="A1000" s="1"/>
-      <c r="D1000" s="38"/>
-      <c r="H1000" s="5"/>
-      <c r="K1000" s="5"/>
-      <c r="P1000" s="5"/>
-    </row>
   </sheetData>
-  <autoFilter ref="$B$3:$P$677"/>
-  <mergeCells count="7">
+  <autoFilter ref="$B$3:$P$672"/>
+  <mergeCells count="2">
     <mergeCell ref="D1:H1"/>
     <mergeCell ref="D2:H2"/>
-    <mergeCell ref="H444:I444"/>
-    <mergeCell ref="H445:I445"/>
-    <mergeCell ref="H446:I446"/>
-    <mergeCell ref="H447:I447"/>
-    <mergeCell ref="H448:I448"/>
   </mergeCells>
   <printOptions/>
   <pageMargins bottom="0.75" footer="0.0" header="0.0" left="0.25" right="0.25" top="0.75"/>
@@ -17332,1187 +17191,1187 @@
   </cols>
   <sheetData>
     <row r="1" ht="14.25" customHeight="1">
-      <c r="C1" s="47" t="s">
-        <v>21</v>
+      <c r="C1" s="42" t="s">
+        <v>16</v>
       </c>
       <c r="D1" s="3"/>
       <c r="E1" s="4"/>
     </row>
     <row r="2" ht="14.25" customHeight="1">
       <c r="C2" s="8" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D2" s="9"/>
       <c r="E2" s="10"/>
     </row>
     <row r="3" ht="14.25" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="48" t="s">
+      <c r="C3" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="48" t="s">
+      <c r="D3" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="43" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="48" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3" s="48" t="s">
+    </row>
+    <row r="4" ht="14.25" customHeight="1">
+      <c r="A4" s="44">
+        <v>1.0</v>
+      </c>
+      <c r="B4" s="44">
+        <v>220152.0</v>
+      </c>
+      <c r="C4" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="G3" s="48" t="s">
+      <c r="D4" s="46">
+        <v>45474.0</v>
+      </c>
+      <c r="E4" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="48" t="s">
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="I3" s="48" t="s">
+      <c r="I4" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="48" t="s">
+      <c r="J4" s="48">
+        <v>5756.0</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25" customHeight="1">
+      <c r="A5" s="44">
+        <v>2.0</v>
+      </c>
+      <c r="B5" s="49" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="4" ht="14.25" customHeight="1">
-      <c r="A4" s="49">
-        <v>1.0</v>
-      </c>
-      <c r="B4" s="49">
-        <v>220152.0</v>
-      </c>
-      <c r="C4" s="50" t="s">
+      <c r="C5" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="46">
+        <v>45540.0</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="D4" s="51">
-        <v>45474.0</v>
-      </c>
-      <c r="E4" s="52" t="s">
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="50" t="s">
+      <c r="I5" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="48">
+        <v>0.0</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25" customHeight="1">
+      <c r="A6" s="44">
+        <v>3.0</v>
+      </c>
+      <c r="B6" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="50" t="s">
+      <c r="C6" s="45" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="46">
+        <v>45348.0</v>
+      </c>
+      <c r="E6" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="53">
-        <v>5756.0</v>
-      </c>
-    </row>
-    <row r="5" ht="14.25" customHeight="1">
-      <c r="A5" s="49">
-        <v>2.0</v>
-      </c>
-      <c r="B5" s="54" t="s">
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="51">
-        <v>45540.0</v>
-      </c>
-      <c r="E5" s="50" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="49"/>
-      <c r="G5" s="49"/>
-      <c r="H5" s="52" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J5" s="53">
-        <v>0.0</v>
-      </c>
-    </row>
-    <row r="6" ht="14.25" customHeight="1">
-      <c r="A6" s="49">
-        <v>3.0</v>
-      </c>
-      <c r="B6" s="49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="50" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="51">
-        <v>45348.0</v>
-      </c>
-      <c r="E6" s="50" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="I6" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="53">
+      <c r="I6" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="48">
         <v>2023.6358</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1">
-      <c r="A7" s="49">
+      <c r="A7" s="44">
         <v>4.0</v>
       </c>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="55"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="53"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="44"/>
+      <c r="J7" s="48"/>
     </row>
     <row r="8" ht="14.25" customHeight="1">
-      <c r="A8" s="49">
+      <c r="A8" s="44">
         <v>5.0</v>
       </c>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="55"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="53"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="48"/>
     </row>
     <row r="9" ht="14.25" customHeight="1">
-      <c r="A9" s="49">
+      <c r="A9" s="44">
         <v>6.0</v>
       </c>
-      <c r="B9" s="49"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="55"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="53"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="44"/>
+      <c r="G9" s="44"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="44"/>
+      <c r="J9" s="48"/>
     </row>
     <row r="10" ht="14.25" customHeight="1">
-      <c r="A10" s="49">
+      <c r="A10" s="44">
         <v>7.0</v>
       </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="55"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="53"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="48"/>
     </row>
     <row r="11" ht="14.25" customHeight="1">
-      <c r="A11" s="49">
+      <c r="A11" s="44">
         <v>8.0</v>
       </c>
-      <c r="B11" s="49"/>
-      <c r="C11" s="49"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="55"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="53"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="44"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" ht="14.25" customHeight="1">
-      <c r="A12" s="49">
+      <c r="A12" s="44">
         <v>9.0</v>
       </c>
-      <c r="B12" s="49"/>
-      <c r="C12" s="49"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="55"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="53"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="48"/>
     </row>
     <row r="13" ht="14.25" customHeight="1">
-      <c r="A13" s="49">
+      <c r="A13" s="44">
         <v>10.0</v>
       </c>
-      <c r="B13" s="49"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="55"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="53"/>
+      <c r="B13" s="44"/>
+      <c r="C13" s="44"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="44"/>
+      <c r="G13" s="44"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="44"/>
+      <c r="J13" s="48"/>
     </row>
     <row r="14" ht="14.25" customHeight="1">
-      <c r="A14" s="49">
+      <c r="A14" s="44">
         <v>11.0</v>
       </c>
-      <c r="B14" s="49"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="55"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="53"/>
+      <c r="B14" s="44"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="48"/>
     </row>
     <row r="15" ht="14.25" customHeight="1">
-      <c r="A15" s="49">
+      <c r="A15" s="44">
         <v>12.0</v>
       </c>
-      <c r="B15" s="49"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="53"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="44"/>
+      <c r="J15" s="48"/>
     </row>
     <row r="16" ht="14.25" customHeight="1">
-      <c r="A16" s="49">
+      <c r="A16" s="44">
         <v>13.0</v>
       </c>
-      <c r="B16" s="49"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
-      <c r="G16" s="49"/>
-      <c r="H16" s="55"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="53"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="48"/>
     </row>
     <row r="17" ht="14.25" customHeight="1">
-      <c r="A17" s="49">
+      <c r="A17" s="44">
         <v>14.0</v>
       </c>
-      <c r="B17" s="49"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="55"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="53"/>
+      <c r="B17" s="44"/>
+      <c r="C17" s="44"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="44"/>
+      <c r="J17" s="48"/>
     </row>
     <row r="18" ht="14.25" customHeight="1">
-      <c r="A18" s="49">
+      <c r="A18" s="44">
         <v>15.0</v>
       </c>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
-      <c r="G18" s="49"/>
-      <c r="H18" s="55"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="53"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="48"/>
     </row>
     <row r="19" ht="14.25" customHeight="1">
-      <c r="A19" s="49">
+      <c r="A19" s="44">
         <v>16.0</v>
       </c>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="49"/>
-      <c r="G19" s="49"/>
-      <c r="H19" s="55"/>
-      <c r="I19" s="49"/>
-      <c r="J19" s="53"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
+      <c r="G19" s="44"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="48"/>
     </row>
     <row r="20" ht="14.25" customHeight="1">
-      <c r="A20" s="49">
+      <c r="A20" s="44">
         <v>17.0</v>
       </c>
-      <c r="B20" s="49"/>
-      <c r="C20" s="49"/>
-      <c r="D20" s="51"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="49"/>
-      <c r="G20" s="49"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="49"/>
-      <c r="J20" s="53"/>
+      <c r="B20" s="44"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="44"/>
+      <c r="J20" s="48"/>
     </row>
     <row r="21" ht="14.25" customHeight="1">
-      <c r="A21" s="49">
+      <c r="A21" s="44">
         <v>18.0</v>
       </c>
-      <c r="B21" s="49"/>
-      <c r="C21" s="49"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="49"/>
-      <c r="G21" s="49"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="49"/>
-      <c r="J21" s="53"/>
+      <c r="B21" s="44"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="46"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="48"/>
     </row>
     <row r="22" ht="14.25" customHeight="1">
-      <c r="A22" s="49">
+      <c r="A22" s="44">
         <v>19.0</v>
       </c>
-      <c r="B22" s="49"/>
-      <c r="C22" s="49"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="49"/>
-      <c r="G22" s="49"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="49"/>
-      <c r="J22" s="53"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="44"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="44"/>
+      <c r="G22" s="44"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="44"/>
+      <c r="J22" s="48"/>
     </row>
     <row r="23" ht="14.25" customHeight="1">
-      <c r="A23" s="49">
+      <c r="A23" s="44">
         <v>20.0</v>
       </c>
-      <c r="B23" s="49"/>
-      <c r="C23" s="49"/>
-      <c r="D23" s="51"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="49"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="49"/>
-      <c r="J23" s="53"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="48"/>
     </row>
     <row r="24" ht="14.25" customHeight="1">
-      <c r="A24" s="49">
+      <c r="A24" s="44">
         <v>21.0</v>
       </c>
-      <c r="B24" s="49"/>
-      <c r="C24" s="49"/>
-      <c r="D24" s="51"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="49"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="49"/>
-      <c r="J24" s="53"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="44"/>
+      <c r="F24" s="44"/>
+      <c r="G24" s="44"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="48"/>
     </row>
     <row r="25" ht="14.25" customHeight="1">
-      <c r="A25" s="49">
+      <c r="A25" s="44">
         <v>22.0</v>
       </c>
-      <c r="B25" s="49"/>
-      <c r="C25" s="49"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="49"/>
-      <c r="G25" s="49"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="49"/>
-      <c r="J25" s="53"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="44"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="48"/>
     </row>
     <row r="26" ht="14.25" customHeight="1">
-      <c r="A26" s="49">
+      <c r="A26" s="44">
         <v>23.0</v>
       </c>
-      <c r="B26" s="49"/>
-      <c r="C26" s="49"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="49"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="53"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="44"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="48"/>
     </row>
     <row r="27" ht="14.25" customHeight="1">
-      <c r="A27" s="49">
+      <c r="A27" s="44">
         <v>24.0</v>
       </c>
-      <c r="B27" s="49"/>
-      <c r="C27" s="49"/>
-      <c r="D27" s="51"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="49"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="53"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="44"/>
+      <c r="F27" s="44"/>
+      <c r="G27" s="44"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="48"/>
     </row>
     <row r="28" ht="14.25" customHeight="1">
-      <c r="A28" s="49">
+      <c r="A28" s="44">
         <v>25.0</v>
       </c>
-      <c r="B28" s="49"/>
-      <c r="C28" s="49"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="49"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="53"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="44"/>
+      <c r="D28" s="46"/>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44"/>
+      <c r="H28" s="50"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="48"/>
     </row>
     <row r="29" ht="14.25" customHeight="1">
-      <c r="A29" s="49">
+      <c r="A29" s="44">
         <v>26.0</v>
       </c>
-      <c r="B29" s="49"/>
-      <c r="C29" s="49"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="49"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="53"/>
+      <c r="B29" s="44"/>
+      <c r="C29" s="44"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="44"/>
+      <c r="F29" s="44"/>
+      <c r="G29" s="44"/>
+      <c r="H29" s="50"/>
+      <c r="I29" s="44"/>
+      <c r="J29" s="48"/>
     </row>
     <row r="30" ht="14.25" customHeight="1">
-      <c r="A30" s="49">
+      <c r="A30" s="44">
         <v>27.0</v>
       </c>
-      <c r="B30" s="49"/>
-      <c r="C30" s="49"/>
-      <c r="D30" s="51"/>
-      <c r="E30" s="49"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="49"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="53"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="44"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="48"/>
     </row>
     <row r="31" ht="14.25" customHeight="1">
-      <c r="A31" s="49">
+      <c r="A31" s="44">
         <v>28.0</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="51"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="55"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="53"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="44"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="44"/>
+      <c r="F31" s="44"/>
+      <c r="G31" s="44"/>
+      <c r="H31" s="50"/>
+      <c r="I31" s="44"/>
+      <c r="J31" s="48"/>
     </row>
     <row r="32" ht="14.25" customHeight="1">
-      <c r="A32" s="49">
+      <c r="A32" s="44">
         <v>29.0</v>
       </c>
-      <c r="B32" s="49"/>
-      <c r="C32" s="49"/>
-      <c r="D32" s="51"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="49"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="53"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="50"/>
+      <c r="I32" s="44"/>
+      <c r="J32" s="48"/>
     </row>
     <row r="33" ht="14.25" customHeight="1">
-      <c r="A33" s="49">
+      <c r="A33" s="44">
         <v>30.0</v>
       </c>
-      <c r="B33" s="49"/>
-      <c r="C33" s="49"/>
-      <c r="D33" s="51"/>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="49"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="53"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="44"/>
+      <c r="D33" s="46"/>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
+      <c r="G33" s="44"/>
+      <c r="H33" s="50"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="48"/>
     </row>
     <row r="34" ht="14.25" customHeight="1">
-      <c r="A34" s="49">
+      <c r="A34" s="44">
         <v>31.0</v>
       </c>
-      <c r="B34" s="49"/>
-      <c r="C34" s="49"/>
-      <c r="D34" s="51"/>
-      <c r="E34" s="49"/>
-      <c r="F34" s="51"/>
-      <c r="G34" s="49"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="53"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="44"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="44"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="44"/>
+      <c r="H34" s="50"/>
+      <c r="I34" s="44"/>
+      <c r="J34" s="48"/>
     </row>
     <row r="35" ht="14.25" customHeight="1">
-      <c r="A35" s="49">
+      <c r="A35" s="44">
         <v>32.0</v>
       </c>
-      <c r="B35" s="49"/>
-      <c r="C35" s="49"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="49"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="53"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="44"/>
+      <c r="D35" s="46"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="50"/>
+      <c r="I35" s="44"/>
+      <c r="J35" s="48"/>
     </row>
     <row r="36" ht="14.25" customHeight="1">
-      <c r="A36" s="49">
+      <c r="A36" s="44">
         <v>33.0</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="53"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="44"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="44"/>
+      <c r="F36" s="44"/>
+      <c r="G36" s="44"/>
+      <c r="H36" s="50"/>
+      <c r="I36" s="44"/>
+      <c r="J36" s="48"/>
     </row>
     <row r="37" ht="14.25" customHeight="1">
-      <c r="A37" s="49">
+      <c r="A37" s="44">
         <v>34.0</v>
       </c>
-      <c r="B37" s="49"/>
-      <c r="C37" s="49"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="49"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="53"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="44"/>
+      <c r="F37" s="44"/>
+      <c r="G37" s="44"/>
+      <c r="H37" s="50"/>
+      <c r="I37" s="44"/>
+      <c r="J37" s="48"/>
     </row>
     <row r="38" ht="14.25" customHeight="1">
-      <c r="A38" s="49">
+      <c r="A38" s="44">
         <v>35.0</v>
       </c>
-      <c r="B38" s="49"/>
-      <c r="C38" s="49"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="49"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="49"/>
-      <c r="H38" s="55"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="53"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="44"/>
+      <c r="D38" s="46"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="50"/>
+      <c r="I38" s="44"/>
+      <c r="J38" s="48"/>
     </row>
     <row r="39" ht="14.25" customHeight="1">
-      <c r="A39" s="49">
+      <c r="A39" s="44">
         <v>36.0</v>
       </c>
-      <c r="B39" s="49"/>
-      <c r="C39" s="49"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="49"/>
-      <c r="G39" s="49"/>
-      <c r="H39" s="55"/>
-      <c r="I39" s="49"/>
-      <c r="J39" s="53"/>
+      <c r="B39" s="44"/>
+      <c r="C39" s="44"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="44"/>
+      <c r="F39" s="44"/>
+      <c r="G39" s="44"/>
+      <c r="H39" s="50"/>
+      <c r="I39" s="44"/>
+      <c r="J39" s="48"/>
     </row>
     <row r="40" ht="14.25" customHeight="1">
-      <c r="A40" s="49">
+      <c r="A40" s="44">
         <v>37.0</v>
       </c>
-      <c r="B40" s="49"/>
-      <c r="C40" s="49"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="49"/>
-      <c r="F40" s="49"/>
-      <c r="G40" s="49"/>
-      <c r="H40" s="55"/>
-      <c r="I40" s="49"/>
-      <c r="J40" s="53"/>
+      <c r="B40" s="44"/>
+      <c r="C40" s="44"/>
+      <c r="D40" s="46"/>
+      <c r="E40" s="44"/>
+      <c r="F40" s="44"/>
+      <c r="G40" s="44"/>
+      <c r="H40" s="50"/>
+      <c r="I40" s="44"/>
+      <c r="J40" s="48"/>
     </row>
     <row r="41" ht="14.25" customHeight="1">
-      <c r="A41" s="49">
+      <c r="A41" s="44">
         <v>38.0</v>
       </c>
-      <c r="B41" s="49"/>
-      <c r="C41" s="49"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="49"/>
-      <c r="F41" s="49"/>
-      <c r="G41" s="49"/>
-      <c r="H41" s="55"/>
-      <c r="I41" s="49"/>
-      <c r="J41" s="53"/>
+      <c r="B41" s="44"/>
+      <c r="C41" s="44"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="44"/>
+      <c r="F41" s="44"/>
+      <c r="G41" s="44"/>
+      <c r="H41" s="50"/>
+      <c r="I41" s="44"/>
+      <c r="J41" s="48"/>
     </row>
     <row r="42" ht="15.0" customHeight="1">
-      <c r="A42" s="49">
+      <c r="A42" s="44">
         <v>39.0</v>
       </c>
-      <c r="B42" s="49"/>
-      <c r="C42" s="49"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="49"/>
-      <c r="F42" s="49"/>
-      <c r="G42" s="49"/>
-      <c r="H42" s="55"/>
-      <c r="I42" s="49"/>
-      <c r="J42" s="53"/>
+      <c r="B42" s="44"/>
+      <c r="C42" s="44"/>
+      <c r="D42" s="46"/>
+      <c r="E42" s="44"/>
+      <c r="F42" s="44"/>
+      <c r="G42" s="44"/>
+      <c r="H42" s="50"/>
+      <c r="I42" s="44"/>
+      <c r="J42" s="48"/>
     </row>
     <row r="43" ht="15.0" customHeight="1">
-      <c r="A43" s="49">
+      <c r="A43" s="44">
         <v>40.0</v>
       </c>
-      <c r="B43" s="49"/>
-      <c r="C43" s="49"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
-      <c r="G43" s="49"/>
-      <c r="H43" s="55"/>
-      <c r="I43" s="49"/>
-      <c r="J43" s="53"/>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="46"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="50"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="48"/>
     </row>
     <row r="44" ht="15.0" customHeight="1">
-      <c r="A44" s="49">
+      <c r="A44" s="44">
         <v>41.0</v>
       </c>
-      <c r="B44" s="56"/>
-      <c r="C44" s="49"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="49"/>
-      <c r="G44" s="49"/>
-      <c r="H44" s="55"/>
-      <c r="I44" s="49"/>
-      <c r="J44" s="53"/>
+      <c r="B44" s="51"/>
+      <c r="C44" s="44"/>
+      <c r="D44" s="46"/>
+      <c r="E44" s="44"/>
+      <c r="F44" s="44"/>
+      <c r="G44" s="44"/>
+      <c r="H44" s="50"/>
+      <c r="I44" s="44"/>
+      <c r="J44" s="48"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" s="49">
+      <c r="A45" s="44">
         <v>42.0</v>
       </c>
-      <c r="B45" s="54"/>
-      <c r="C45" s="49"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="49"/>
-      <c r="F45" s="51"/>
-      <c r="G45" s="49"/>
-      <c r="H45" s="55"/>
-      <c r="I45" s="49"/>
-      <c r="J45" s="53"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="46"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="44"/>
+      <c r="H45" s="50"/>
+      <c r="I45" s="44"/>
+      <c r="J45" s="48"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
-      <c r="A46" s="49">
+      <c r="A46" s="44">
         <v>43.0</v>
       </c>
-      <c r="B46" s="54"/>
-      <c r="C46" s="49"/>
-      <c r="D46" s="51"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="51"/>
-      <c r="G46" s="49"/>
-      <c r="H46" s="55"/>
-      <c r="I46" s="49"/>
-      <c r="J46" s="53"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="46"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="46"/>
+      <c r="G46" s="44"/>
+      <c r="H46" s="50"/>
+      <c r="I46" s="44"/>
+      <c r="J46" s="48"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" s="49">
+      <c r="A47" s="44">
         <v>44.0</v>
       </c>
-      <c r="B47" s="54"/>
-      <c r="C47" s="49"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="49"/>
-      <c r="H47" s="55"/>
-      <c r="I47" s="49"/>
-      <c r="J47" s="53"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="44"/>
+      <c r="D47" s="46"/>
+      <c r="E47" s="44"/>
+      <c r="F47" s="44"/>
+      <c r="G47" s="44"/>
+      <c r="H47" s="50"/>
+      <c r="I47" s="44"/>
+      <c r="J47" s="48"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
-      <c r="A48" s="49">
+      <c r="A48" s="44">
         <v>45.0</v>
       </c>
-      <c r="B48" s="54"/>
-      <c r="C48" s="49"/>
-      <c r="D48" s="51"/>
-      <c r="E48" s="49"/>
-      <c r="F48" s="49"/>
-      <c r="G48" s="49"/>
-      <c r="H48" s="55"/>
-      <c r="I48" s="49"/>
-      <c r="J48" s="53"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="44"/>
+      <c r="D48" s="46"/>
+      <c r="E48" s="44"/>
+      <c r="F48" s="44"/>
+      <c r="G48" s="44"/>
+      <c r="H48" s="50"/>
+      <c r="I48" s="44"/>
+      <c r="J48" s="48"/>
     </row>
     <row r="49" ht="14.25" customHeight="1">
-      <c r="A49" s="49">
+      <c r="A49" s="44">
         <v>46.0</v>
       </c>
-      <c r="B49" s="54"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="49"/>
-      <c r="F49" s="49"/>
-      <c r="G49" s="49"/>
-      <c r="H49" s="55"/>
-      <c r="I49" s="49"/>
-      <c r="J49" s="53"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="44"/>
+      <c r="D49" s="46"/>
+      <c r="E49" s="44"/>
+      <c r="F49" s="44"/>
+      <c r="G49" s="44"/>
+      <c r="H49" s="50"/>
+      <c r="I49" s="44"/>
+      <c r="J49" s="48"/>
     </row>
     <row r="50" ht="14.25" customHeight="1">
-      <c r="A50" s="49">
+      <c r="A50" s="44">
         <v>47.0</v>
       </c>
-      <c r="B50" s="56"/>
-      <c r="C50" s="49"/>
-      <c r="D50" s="51"/>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
-      <c r="G50" s="49"/>
-      <c r="H50" s="55"/>
-      <c r="I50" s="49"/>
-      <c r="J50" s="53"/>
+      <c r="B50" s="51"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="46"/>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
+      <c r="G50" s="44"/>
+      <c r="H50" s="50"/>
+      <c r="I50" s="44"/>
+      <c r="J50" s="48"/>
     </row>
     <row r="51" ht="14.25" customHeight="1">
-      <c r="A51" s="49">
+      <c r="A51" s="44">
         <v>48.0</v>
       </c>
-      <c r="B51" s="49"/>
-      <c r="C51" s="49"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="49"/>
-      <c r="G51" s="49"/>
-      <c r="H51" s="49"/>
-      <c r="I51" s="49"/>
-      <c r="J51" s="53"/>
+      <c r="B51" s="44"/>
+      <c r="C51" s="44"/>
+      <c r="D51" s="46"/>
+      <c r="E51" s="44"/>
+      <c r="F51" s="44"/>
+      <c r="G51" s="44"/>
+      <c r="H51" s="44"/>
+      <c r="I51" s="44"/>
+      <c r="J51" s="48"/>
     </row>
     <row r="52" ht="14.25" customHeight="1">
-      <c r="A52" s="49">
+      <c r="A52" s="44">
         <v>49.0</v>
       </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="49"/>
-      <c r="D52" s="51"/>
-      <c r="E52" s="49"/>
-      <c r="F52" s="49"/>
-      <c r="G52" s="49"/>
-      <c r="H52" s="49"/>
-      <c r="I52" s="49"/>
-      <c r="J52" s="53"/>
+      <c r="B52" s="50"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="46"/>
+      <c r="E52" s="44"/>
+      <c r="F52" s="44"/>
+      <c r="G52" s="44"/>
+      <c r="H52" s="44"/>
+      <c r="I52" s="44"/>
+      <c r="J52" s="48"/>
     </row>
     <row r="53" ht="14.25" customHeight="1">
-      <c r="A53" s="49">
+      <c r="A53" s="44">
         <v>50.0</v>
       </c>
-      <c r="B53" s="49"/>
-      <c r="C53" s="49"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="49"/>
-      <c r="G53" s="49"/>
-      <c r="H53" s="49"/>
-      <c r="I53" s="49"/>
-      <c r="J53" s="53"/>
+      <c r="B53" s="44"/>
+      <c r="C53" s="44"/>
+      <c r="D53" s="46"/>
+      <c r="E53" s="50"/>
+      <c r="F53" s="44"/>
+      <c r="G53" s="44"/>
+      <c r="H53" s="44"/>
+      <c r="I53" s="44"/>
+      <c r="J53" s="48"/>
     </row>
     <row r="54" ht="14.25" customHeight="1">
-      <c r="A54" s="49">
+      <c r="A54" s="44">
         <v>51.0</v>
       </c>
-      <c r="B54" s="49"/>
-      <c r="C54" s="49"/>
-      <c r="D54" s="51"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="49"/>
-      <c r="G54" s="49"/>
-      <c r="H54" s="49"/>
-      <c r="I54" s="49"/>
-      <c r="J54" s="53"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="46"/>
+      <c r="E54" s="44"/>
+      <c r="F54" s="44"/>
+      <c r="G54" s="44"/>
+      <c r="H54" s="44"/>
+      <c r="I54" s="44"/>
+      <c r="J54" s="48"/>
     </row>
     <row r="55" ht="14.25" customHeight="1">
-      <c r="A55" s="49">
+      <c r="A55" s="44">
         <v>52.0</v>
       </c>
-      <c r="B55" s="49"/>
-      <c r="C55" s="49"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="49"/>
-      <c r="G55" s="49"/>
-      <c r="H55" s="49"/>
-      <c r="I55" s="49"/>
-      <c r="J55" s="53"/>
+      <c r="B55" s="44"/>
+      <c r="C55" s="44"/>
+      <c r="D55" s="46"/>
+      <c r="E55" s="44"/>
+      <c r="F55" s="44"/>
+      <c r="G55" s="44"/>
+      <c r="H55" s="44"/>
+      <c r="I55" s="44"/>
+      <c r="J55" s="48"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" s="49">
+      <c r="A56" s="44">
         <v>53.0</v>
       </c>
-      <c r="B56" s="49"/>
-      <c r="C56" s="49"/>
-      <c r="D56" s="51"/>
-      <c r="E56" s="49"/>
-      <c r="F56" s="49"/>
-      <c r="G56" s="49"/>
-      <c r="H56" s="49"/>
-      <c r="I56" s="49"/>
-      <c r="J56" s="53"/>
+      <c r="B56" s="44"/>
+      <c r="C56" s="44"/>
+      <c r="D56" s="46"/>
+      <c r="E56" s="44"/>
+      <c r="F56" s="44"/>
+      <c r="G56" s="44"/>
+      <c r="H56" s="44"/>
+      <c r="I56" s="44"/>
+      <c r="J56" s="48"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" s="49">
+      <c r="A57" s="44">
         <v>54.0</v>
       </c>
-      <c r="B57" s="49"/>
-      <c r="C57" s="49"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="49"/>
-      <c r="F57" s="49"/>
-      <c r="G57" s="49"/>
-      <c r="H57" s="49"/>
-      <c r="I57" s="49"/>
-      <c r="J57" s="53"/>
+      <c r="B57" s="44"/>
+      <c r="C57" s="44"/>
+      <c r="D57" s="46"/>
+      <c r="E57" s="44"/>
+      <c r="F57" s="44"/>
+      <c r="G57" s="44"/>
+      <c r="H57" s="44"/>
+      <c r="I57" s="44"/>
+      <c r="J57" s="48"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
-      <c r="A58" s="49">
+      <c r="A58" s="44">
         <v>55.0</v>
       </c>
-      <c r="B58" s="49"/>
-      <c r="C58" s="49"/>
-      <c r="D58" s="51"/>
-      <c r="E58" s="49"/>
-      <c r="F58" s="49"/>
-      <c r="G58" s="49"/>
-      <c r="H58" s="49"/>
-      <c r="I58" s="49"/>
-      <c r="J58" s="53"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="46"/>
+      <c r="E58" s="44"/>
+      <c r="F58" s="44"/>
+      <c r="G58" s="44"/>
+      <c r="H58" s="44"/>
+      <c r="I58" s="44"/>
+      <c r="J58" s="48"/>
     </row>
     <row r="59" ht="14.25" customHeight="1">
-      <c r="A59" s="49">
+      <c r="A59" s="44">
         <v>56.0</v>
       </c>
-      <c r="B59" s="49"/>
-      <c r="C59" s="49"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="49"/>
-      <c r="F59" s="49"/>
-      <c r="G59" s="49"/>
-      <c r="H59" s="49"/>
-      <c r="I59" s="49"/>
-      <c r="J59" s="53"/>
+      <c r="B59" s="44"/>
+      <c r="C59" s="44"/>
+      <c r="D59" s="46"/>
+      <c r="E59" s="44"/>
+      <c r="F59" s="44"/>
+      <c r="G59" s="44"/>
+      <c r="H59" s="44"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="48"/>
     </row>
     <row r="60" ht="14.25" customHeight="1">
-      <c r="A60" s="49">
+      <c r="A60" s="44">
         <v>57.0</v>
       </c>
-      <c r="B60" s="49"/>
-      <c r="C60" s="55"/>
-      <c r="D60" s="51"/>
-      <c r="E60" s="49"/>
-      <c r="F60" s="49"/>
-      <c r="G60" s="49"/>
-      <c r="H60" s="49"/>
-      <c r="I60" s="49"/>
-      <c r="J60" s="53"/>
+      <c r="B60" s="44"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="46"/>
+      <c r="E60" s="44"/>
+      <c r="F60" s="44"/>
+      <c r="G60" s="44"/>
+      <c r="H60" s="44"/>
+      <c r="I60" s="44"/>
+      <c r="J60" s="48"/>
     </row>
     <row r="61" ht="14.25" customHeight="1">
-      <c r="A61" s="49">
+      <c r="A61" s="44">
         <v>58.0</v>
       </c>
-      <c r="B61" s="49"/>
-      <c r="C61" s="55"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="49"/>
-      <c r="G61" s="49"/>
-      <c r="H61" s="49"/>
-      <c r="I61" s="49"/>
-      <c r="J61" s="53"/>
+      <c r="B61" s="44"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="44"/>
+      <c r="F61" s="44"/>
+      <c r="G61" s="44"/>
+      <c r="H61" s="44"/>
+      <c r="I61" s="44"/>
+      <c r="J61" s="48"/>
     </row>
     <row r="62" ht="14.25" customHeight="1">
-      <c r="A62" s="49">
+      <c r="A62" s="44">
         <v>59.0</v>
       </c>
-      <c r="B62" s="49"/>
-      <c r="C62" s="55"/>
-      <c r="D62" s="51"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="49"/>
-      <c r="G62" s="49"/>
-      <c r="H62" s="49"/>
-      <c r="I62" s="49"/>
-      <c r="J62" s="53"/>
+      <c r="B62" s="44"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="46"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="48"/>
     </row>
     <row r="63" ht="14.25" customHeight="1">
-      <c r="A63" s="49">
+      <c r="A63" s="44">
         <v>60.0</v>
       </c>
-      <c r="B63" s="49"/>
-      <c r="C63" s="49"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="49"/>
-      <c r="G63" s="49"/>
-      <c r="H63" s="49"/>
-      <c r="I63" s="49"/>
-      <c r="J63" s="53"/>
+      <c r="B63" s="44"/>
+      <c r="C63" s="44"/>
+      <c r="D63" s="46"/>
+      <c r="E63" s="44"/>
+      <c r="F63" s="44"/>
+      <c r="G63" s="44"/>
+      <c r="H63" s="44"/>
+      <c r="I63" s="44"/>
+      <c r="J63" s="48"/>
     </row>
     <row r="64" ht="14.25" customHeight="1">
-      <c r="A64" s="49">
+      <c r="A64" s="44">
         <v>61.0</v>
       </c>
-      <c r="B64" s="49"/>
-      <c r="C64" s="49"/>
-      <c r="D64" s="51"/>
-      <c r="E64" s="49"/>
-      <c r="F64" s="49"/>
-      <c r="G64" s="49"/>
-      <c r="H64" s="49"/>
-      <c r="I64" s="49"/>
-      <c r="J64" s="53"/>
+      <c r="B64" s="44"/>
+      <c r="C64" s="44"/>
+      <c r="D64" s="46"/>
+      <c r="E64" s="44"/>
+      <c r="F64" s="44"/>
+      <c r="G64" s="44"/>
+      <c r="H64" s="44"/>
+      <c r="I64" s="44"/>
+      <c r="J64" s="48"/>
     </row>
     <row r="65" ht="14.25" customHeight="1">
-      <c r="A65" s="49">
+      <c r="A65" s="44">
         <v>62.0</v>
       </c>
-      <c r="B65" s="49"/>
-      <c r="C65" s="49"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="49"/>
-      <c r="G65" s="49"/>
-      <c r="H65" s="49"/>
-      <c r="I65" s="49"/>
-      <c r="J65" s="53"/>
+      <c r="B65" s="44"/>
+      <c r="C65" s="44"/>
+      <c r="D65" s="46"/>
+      <c r="E65" s="44"/>
+      <c r="F65" s="44"/>
+      <c r="G65" s="44"/>
+      <c r="H65" s="44"/>
+      <c r="I65" s="44"/>
+      <c r="J65" s="48"/>
     </row>
     <row r="66" ht="14.25" customHeight="1">
-      <c r="A66" s="49">
+      <c r="A66" s="44">
         <v>63.0</v>
       </c>
-      <c r="B66" s="49"/>
-      <c r="C66" s="49"/>
-      <c r="D66" s="51"/>
-      <c r="E66" s="49"/>
-      <c r="F66" s="49"/>
-      <c r="G66" s="49"/>
-      <c r="H66" s="49"/>
-      <c r="I66" s="49"/>
-      <c r="J66" s="53"/>
+      <c r="B66" s="44"/>
+      <c r="C66" s="44"/>
+      <c r="D66" s="46"/>
+      <c r="E66" s="44"/>
+      <c r="F66" s="44"/>
+      <c r="G66" s="44"/>
+      <c r="H66" s="44"/>
+      <c r="I66" s="44"/>
+      <c r="J66" s="48"/>
     </row>
     <row r="67" ht="14.25" customHeight="1">
-      <c r="A67" s="49">
+      <c r="A67" s="44">
         <v>64.0</v>
       </c>
-      <c r="B67" s="54"/>
-      <c r="C67" s="49"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="49"/>
-      <c r="G67" s="49"/>
-      <c r="H67" s="55"/>
-      <c r="I67" s="49"/>
-      <c r="J67" s="53"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="44"/>
+      <c r="D67" s="46"/>
+      <c r="E67" s="44"/>
+      <c r="F67" s="44"/>
+      <c r="G67" s="44"/>
+      <c r="H67" s="50"/>
+      <c r="I67" s="44"/>
+      <c r="J67" s="48"/>
     </row>
     <row r="68" ht="14.25" customHeight="1">
-      <c r="A68" s="49">
+      <c r="A68" s="44">
         <v>65.0</v>
       </c>
-      <c r="B68" s="54"/>
-      <c r="C68" s="49"/>
-      <c r="D68" s="51"/>
-      <c r="E68" s="49"/>
-      <c r="F68" s="49"/>
-      <c r="G68" s="49"/>
-      <c r="H68" s="55"/>
-      <c r="I68" s="49"/>
-      <c r="J68" s="53"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="44"/>
+      <c r="D68" s="46"/>
+      <c r="E68" s="44"/>
+      <c r="F68" s="44"/>
+      <c r="G68" s="44"/>
+      <c r="H68" s="50"/>
+      <c r="I68" s="44"/>
+      <c r="J68" s="48"/>
     </row>
     <row r="69" ht="14.25" customHeight="1">
-      <c r="A69" s="49">
+      <c r="A69" s="44">
         <v>66.0</v>
       </c>
-      <c r="B69" s="54"/>
-      <c r="C69" s="49"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
-      <c r="G69" s="49"/>
-      <c r="H69" s="55"/>
-      <c r="I69" s="49"/>
-      <c r="J69" s="53"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="46"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="50"/>
+      <c r="I69" s="44"/>
+      <c r="J69" s="48"/>
     </row>
     <row r="70" ht="14.25" customHeight="1">
-      <c r="A70" s="49">
+      <c r="A70" s="44">
         <v>67.0</v>
       </c>
-      <c r="B70" s="54"/>
-      <c r="C70" s="49"/>
-      <c r="D70" s="51"/>
-      <c r="E70" s="49"/>
-      <c r="F70" s="49"/>
-      <c r="G70" s="49"/>
-      <c r="H70" s="55"/>
-      <c r="I70" s="49"/>
-      <c r="J70" s="53"/>
+      <c r="B70" s="49"/>
+      <c r="C70" s="44"/>
+      <c r="D70" s="46"/>
+      <c r="E70" s="44"/>
+      <c r="F70" s="44"/>
+      <c r="G70" s="44"/>
+      <c r="H70" s="50"/>
+      <c r="I70" s="44"/>
+      <c r="J70" s="48"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" s="49">
+      <c r="A71" s="44">
         <v>68.0</v>
       </c>
-      <c r="B71" s="54"/>
-      <c r="C71" s="49"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="49"/>
-      <c r="G71" s="49"/>
-      <c r="H71" s="55"/>
-      <c r="I71" s="49"/>
-      <c r="J71" s="53"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="44"/>
+      <c r="D71" s="46"/>
+      <c r="E71" s="44"/>
+      <c r="F71" s="44"/>
+      <c r="G71" s="44"/>
+      <c r="H71" s="50"/>
+      <c r="I71" s="44"/>
+      <c r="J71" s="48"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" s="49">
+      <c r="A72" s="44">
         <v>69.0</v>
       </c>
-      <c r="B72" s="54"/>
-      <c r="C72" s="49"/>
-      <c r="D72" s="51"/>
-      <c r="E72" s="49"/>
-      <c r="F72" s="49"/>
-      <c r="G72" s="49"/>
-      <c r="H72" s="55"/>
-      <c r="I72" s="49"/>
-      <c r="J72" s="53"/>
+      <c r="B72" s="49"/>
+      <c r="C72" s="44"/>
+      <c r="D72" s="46"/>
+      <c r="E72" s="44"/>
+      <c r="F72" s="44"/>
+      <c r="G72" s="44"/>
+      <c r="H72" s="50"/>
+      <c r="I72" s="44"/>
+      <c r="J72" s="48"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
-      <c r="A73" s="49">
+      <c r="A73" s="44">
         <v>70.0</v>
       </c>
-      <c r="B73" s="54"/>
-      <c r="C73" s="49"/>
-      <c r="D73" s="51"/>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
-      <c r="G73" s="49"/>
-      <c r="H73" s="55"/>
-      <c r="I73" s="49"/>
-      <c r="J73" s="53"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="46"/>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
+      <c r="G73" s="44"/>
+      <c r="H73" s="50"/>
+      <c r="I73" s="44"/>
+      <c r="J73" s="48"/>
     </row>
     <row r="74" ht="14.25" customHeight="1">
-      <c r="A74" s="49">
+      <c r="A74" s="44">
         <v>71.0</v>
       </c>
-      <c r="B74" s="54"/>
-      <c r="C74" s="49"/>
-      <c r="D74" s="51"/>
-      <c r="E74" s="49"/>
-      <c r="F74" s="49"/>
-      <c r="G74" s="49"/>
-      <c r="H74" s="55"/>
-      <c r="I74" s="49"/>
-      <c r="J74" s="53"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="44"/>
+      <c r="D74" s="46"/>
+      <c r="E74" s="44"/>
+      <c r="F74" s="44"/>
+      <c r="G74" s="44"/>
+      <c r="H74" s="50"/>
+      <c r="I74" s="44"/>
+      <c r="J74" s="48"/>
     </row>
     <row r="75" ht="14.25" customHeight="1">
-      <c r="A75" s="49">
+      <c r="A75" s="44">
         <v>72.0</v>
       </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="51"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="55"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="53"/>
+      <c r="B75" s="49"/>
+      <c r="C75" s="44"/>
+      <c r="D75" s="46"/>
+      <c r="E75" s="44"/>
+      <c r="F75" s="44"/>
+      <c r="G75" s="44"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="44"/>
+      <c r="J75" s="48"/>
     </row>
     <row r="76" ht="14.25" customHeight="1">
-      <c r="A76" s="49">
+      <c r="A76" s="44">
         <v>73.0</v>
       </c>
-      <c r="B76" s="54"/>
-      <c r="C76" s="49"/>
-      <c r="D76" s="51"/>
-      <c r="E76" s="49"/>
-      <c r="F76" s="49"/>
-      <c r="G76" s="49"/>
-      <c r="H76" s="55"/>
-      <c r="I76" s="49"/>
-      <c r="J76" s="53"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="44"/>
+      <c r="D76" s="46"/>
+      <c r="E76" s="44"/>
+      <c r="F76" s="44"/>
+      <c r="G76" s="44"/>
+      <c r="H76" s="50"/>
+      <c r="I76" s="44"/>
+      <c r="J76" s="48"/>
     </row>
     <row r="77" ht="14.25" customHeight="1">
-      <c r="A77" s="49">
+      <c r="A77" s="44">
         <v>74.0</v>
       </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="49"/>
-      <c r="D77" s="51"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="49"/>
-      <c r="G77" s="49"/>
-      <c r="H77" s="55"/>
-      <c r="I77" s="49"/>
-      <c r="J77" s="53"/>
+      <c r="B77" s="49"/>
+      <c r="C77" s="44"/>
+      <c r="D77" s="46"/>
+      <c r="E77" s="44"/>
+      <c r="F77" s="44"/>
+      <c r="G77" s="44"/>
+      <c r="H77" s="50"/>
+      <c r="I77" s="44"/>
+      <c r="J77" s="48"/>
     </row>
     <row r="78" ht="14.25" customHeight="1">
-      <c r="A78" s="49">
+      <c r="A78" s="44">
         <v>75.0</v>
       </c>
-      <c r="B78" s="54"/>
-      <c r="C78" s="49"/>
-      <c r="D78" s="51"/>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
-      <c r="G78" s="49"/>
-      <c r="H78" s="55"/>
-      <c r="I78" s="49"/>
-      <c r="J78" s="53"/>
+      <c r="B78" s="49"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="46"/>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
+      <c r="G78" s="44"/>
+      <c r="H78" s="50"/>
+      <c r="I78" s="44"/>
+      <c r="J78" s="48"/>
     </row>
     <row r="79" ht="14.25" customHeight="1">
-      <c r="A79" s="49">
+      <c r="A79" s="44">
         <v>76.0</v>
       </c>
-      <c r="B79" s="54"/>
-      <c r="C79" s="49"/>
-      <c r="D79" s="51"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="49"/>
-      <c r="G79" s="49"/>
-      <c r="H79" s="55"/>
-      <c r="I79" s="49"/>
-      <c r="J79" s="53"/>
+      <c r="B79" s="49"/>
+      <c r="C79" s="44"/>
+      <c r="D79" s="46"/>
+      <c r="E79" s="44"/>
+      <c r="F79" s="44"/>
+      <c r="G79" s="44"/>
+      <c r="H79" s="50"/>
+      <c r="I79" s="44"/>
+      <c r="J79" s="48"/>
     </row>
     <row r="80" ht="14.25" customHeight="1">
-      <c r="A80" s="49">
+      <c r="A80" s="44">
         <v>77.0</v>
       </c>
-      <c r="B80" s="54"/>
-      <c r="C80" s="49"/>
-      <c r="D80" s="51"/>
-      <c r="E80" s="49"/>
-      <c r="F80" s="49"/>
-      <c r="G80" s="49"/>
-      <c r="H80" s="55"/>
-      <c r="I80" s="49"/>
-      <c r="J80" s="53"/>
+      <c r="B80" s="49"/>
+      <c r="C80" s="44"/>
+      <c r="D80" s="46"/>
+      <c r="E80" s="44"/>
+      <c r="F80" s="44"/>
+      <c r="G80" s="44"/>
+      <c r="H80" s="50"/>
+      <c r="I80" s="44"/>
+      <c r="J80" s="48"/>
     </row>
     <row r="81" ht="14.25" customHeight="1">
-      <c r="A81" s="49">
+      <c r="A81" s="44">
         <v>78.0</v>
       </c>
-      <c r="B81" s="54"/>
-      <c r="C81" s="49"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
-      <c r="G81" s="49"/>
-      <c r="H81" s="55"/>
-      <c r="I81" s="49"/>
-      <c r="J81" s="53"/>
+      <c r="B81" s="49"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="46"/>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
+      <c r="G81" s="44"/>
+      <c r="H81" s="50"/>
+      <c r="I81" s="44"/>
+      <c r="J81" s="48"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="J82" s="57">
+      <c r="J82" s="52">
         <f>SUM(J4:J81)</f>
         <v>7779.6358</v>
       </c>
@@ -20380,7 +20239,7 @@
     <row r="1943" ht="14.25" customHeight="1"/>
     <row r="1944" ht="14.25" customHeight="1"/>
     <row r="1945" ht="14.25" customHeight="1">
-      <c r="B1945" s="58">
+      <c r="B1945" s="53">
         <v>0.0</v>
       </c>
     </row>

--- a/resources/import/sold_policies_hay2a_report.xlsx
+++ b/resources/import/sold_policies_hay2a_report.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>م</t>
   </si>
@@ -87,36 +87,6 @@
   </si>
   <si>
     <t>العمولة التى تم ردها لشركة التأمين</t>
-  </si>
-  <si>
-    <t>سيارات</t>
-  </si>
-  <si>
-    <t>وثاق للتأمين التكافلي</t>
-  </si>
-  <si>
-    <t>ضحى سيد حسن على الجناينى</t>
-  </si>
-  <si>
-    <t>العميل</t>
-  </si>
-  <si>
-    <t>P-33-2024-MOT-MOTPR-2106</t>
-  </si>
-  <si>
-    <t>جي اي جي</t>
-  </si>
-  <si>
-    <t>دينا محمود صلاح احمد الحضرى</t>
-  </si>
-  <si>
-    <t>00902076789</t>
-  </si>
-  <si>
-    <t>اليانز للتأمين</t>
-  </si>
-  <si>
-    <t>احمد محمد فارس ابراهيم</t>
   </si>
 </sst>
 </file>
@@ -17179,14 +17149,14 @@
   <cols>
     <col customWidth="1" min="1" max="1" width="4.43"/>
     <col customWidth="1" min="2" max="2" width="28.86"/>
-    <col customWidth="1" min="3" max="3" width="8.71"/>
-    <col customWidth="1" min="4" max="4" width="10.43"/>
-    <col customWidth="1" min="5" max="5" width="12.71"/>
-    <col customWidth="1" min="6" max="6" width="5.86"/>
-    <col customWidth="1" min="7" max="7" width="5.14"/>
+    <col customWidth="1" min="3" max="3" width="22.0"/>
+    <col customWidth="1" min="4" max="4" width="22.86"/>
+    <col customWidth="1" min="5" max="5" width="21.29"/>
+    <col customWidth="1" min="6" max="6" width="27.14"/>
+    <col customWidth="1" min="7" max="7" width="34.43"/>
     <col customWidth="1" min="8" max="8" width="27.43"/>
-    <col customWidth="1" min="9" max="9" width="8.71"/>
-    <col customWidth="1" min="10" max="10" width="9.14"/>
+    <col customWidth="1" min="9" max="9" width="13.71"/>
+    <col customWidth="1" min="10" max="10" width="40.14"/>
     <col customWidth="1" min="11" max="26" width="8.71"/>
   </cols>
   <sheetData>
@@ -17240,85 +17210,43 @@
       <c r="A4" s="44">
         <v>1.0</v>
       </c>
-      <c r="B4" s="44">
-        <v>220152.0</v>
-      </c>
-      <c r="C4" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="46">
-        <v>45474.0</v>
-      </c>
-      <c r="E4" s="47" t="s">
-        <v>25</v>
-      </c>
+      <c r="B4" s="44"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="47"/>
       <c r="F4" s="44"/>
       <c r="G4" s="44"/>
-      <c r="H4" s="45" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="48">
-        <v>5756.0</v>
-      </c>
+      <c r="H4" s="45"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="48"/>
     </row>
     <row r="5" ht="14.25" customHeight="1">
       <c r="A5" s="44">
         <v>2.0</v>
       </c>
-      <c r="B5" s="49" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" s="46">
-        <v>45540.0</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>29</v>
-      </c>
+      <c r="B5" s="49"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="45"/>
       <c r="F5" s="44"/>
       <c r="G5" s="44"/>
-      <c r="H5" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J5" s="48">
-        <v>0.0</v>
-      </c>
+      <c r="H5" s="47"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="48"/>
     </row>
     <row r="6" ht="14.25" customHeight="1">
       <c r="A6" s="44">
         <v>3.0</v>
       </c>
-      <c r="B6" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C6" s="45" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="46">
-        <v>45348.0</v>
-      </c>
-      <c r="E6" s="45" t="s">
-        <v>32</v>
-      </c>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="45"/>
       <c r="F6" s="44"/>
       <c r="G6" s="44"/>
-      <c r="H6" s="45" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="48">
-        <v>2023.6358</v>
-      </c>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="48"/>
     </row>
     <row r="7" ht="14.25" customHeight="1">
       <c r="A7" s="44">
@@ -18373,7 +18301,7 @@
     <row r="82" ht="14.25" customHeight="1">
       <c r="J82" s="52">
         <f>SUM(J4:J81)</f>
-        <v>7779.6358</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" ht="14.25" customHeight="1"/>
